--- a/static/private/z-Zigeunerpaar.xlsx
+++ b/static/private/z-Zigeunerpaar.xlsx
@@ -1,61 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objekt-ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Object1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Zigeunerpaar"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Künstler*in/Autor*in</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl Friedrich Ströher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sichtbare oder genannte Personen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unbekanntes Paar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entstehungsjahr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ort der Entstehung / Nutzung</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="48">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>Objekt-ID</t>
+  </si>
+  <si>
+    <t>No data</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>"Zigeunerpaar"</t>
+  </si>
+  <si>
+    <t>Künstler*in/Autor*in</t>
+  </si>
+  <si>
+    <t>Karl Friedrich Ströher</t>
+  </si>
+  <si>
+    <t>Sichtbare oder genannte Personen</t>
+  </si>
+  <si>
+    <t>unbekanntes Paar</t>
+  </si>
+  <si>
+    <t>Entstehungsjahr</t>
+  </si>
+  <si>
+    <t>Ort der Entstehung / Nutzung</t>
   </si>
   <si>
     <t xml:space="preserve">vermutlich Berlin </t>
@@ -64,22 +55,22 @@
     <t xml:space="preserve">Gattung / Genre </t>
   </si>
   <si>
-    <t xml:space="preserve">Bildende Kunst</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Öl Gemälde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dimensionen:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">151,5x116 cm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kurzbeschreibung</t>
+    <t>Bildende Kunst</t>
+  </si>
+  <si>
+    <t>Technik</t>
+  </si>
+  <si>
+    <t>Öl Gemälde</t>
+  </si>
+  <si>
+    <t>Dimensionen:</t>
+  </si>
+  <si>
+    <t>151,5x116 cm</t>
+  </si>
+  <si>
+    <t>Kurzbeschreibung</t>
   </si>
   <si>
     <t xml:space="preserve">Paar in leichter Draufsicht und grellem Sonnenlicht mit Schattenpartien gezeigt. Beide tragen bunte Kleidung, die Frau in farbenfroher Tracht blickt aus dem Bild heraus, während der Mann mit Hut zu ihr schaut. Das Gemälde ist einem pointillistischen Stil, indem die Pinselschläge an Mosaik erinnern. </t>
@@ -91,119 +82,97 @@
     <t xml:space="preserve">Exotismus, Buntheit, Hautfarbe </t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative / Diskurse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historischer Kontext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ströher ist Meisterschüler in Berlin und macht Reisen nach Frankreich und Spanien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antiziganistische / Stigmatisierende Elemente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency</t>
+    <t>Narrative / Diskurse</t>
+  </si>
+  <si>
+    <t>Historischer Kontext</t>
+  </si>
+  <si>
+    <t>Ströher ist Meisterschüler in Berlin und macht Reisen nach Frankreich und Spanien</t>
+  </si>
+  <si>
+    <t>Antiziganistische / Stigmatisierende Elemente</t>
+  </si>
+  <si>
+    <t>Agency</t>
   </si>
   <si>
     <t xml:space="preserve">Verknüpfung </t>
   </si>
   <si>
-    <t xml:space="preserve">Narrativwandel bei Medienwechsel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rezeptionsweg</t>
+    <t>Narrativwandel bei Medienwechsel</t>
+  </si>
+  <si>
+    <t>Rezeptionsweg</t>
   </si>
   <si>
     <t xml:space="preserve">Sammlung / Archiv </t>
   </si>
   <si>
-    <t xml:space="preserve">Provenienz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Möglicherweise nach Skizzen aus Spanien oder dort entstanden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literatur</t>
+    <t>Provenienz</t>
+  </si>
+  <si>
+    <t>Möglicherweise nach Skizzen aus Spanien oder dort entstanden.</t>
+  </si>
+  <si>
+    <t>Literatur</t>
   </si>
   <si>
     <t xml:space="preserve">Lebenserinnerungen des Malers Friedrich Karl Ströher 1876 - 1925, hrsg. vom Freundeskreises des Werkes Karl Friedrich Ströher und dem Hunsrück-Museum Simmern, Simmern 2004, S. 52
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Ausstellungen / Aufführungen / Veröffentlichungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Ströher in Spanien" Simmern, 2023-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objekt- oder Werkteil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rechte / Lizenzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digitalisat-Link/Pfad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metadaten-Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfasst von</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erfassungsdatum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kommentar / Anmerkung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Versionsgeschichte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nodeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Painting</t>
+    <t>Ausstellungen / Aufführungen / Veröffentlichungen</t>
+  </si>
+  <si>
+    <t>"Ströher in Spanien" Simmern, 2023-2024</t>
+  </si>
+  <si>
+    <t>Objekt- oder Werkteil</t>
+  </si>
+  <si>
+    <t>Rechte / Lizenzen</t>
+  </si>
+  <si>
+    <t>Digitalisat-Link/Pfad</t>
+  </si>
+  <si>
+    <t>Metadaten-Status</t>
+  </si>
+  <si>
+    <t>Erfasst von</t>
+  </si>
+  <si>
+    <t>Erfassungsdatum</t>
+  </si>
+  <si>
+    <t>Kommentar / Anmerkung</t>
+  </si>
+  <si>
+    <t>Versionsgeschichte</t>
+  </si>
+  <si>
+    <t>nodeType</t>
+  </si>
+  <si>
+    <t>Painitng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,70 +180,41 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -285,90 +225,94 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285f4"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ea4335"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="fbbc04"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34a853"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="ff6d01"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46bdc6"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155cc"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -376,24 +320,33 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -406,7 +359,13 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -416,13 +375,15 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
+                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -430,6 +391,7 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
+                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -437,11 +399,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -450,32 +412,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.38"/>
+    <col customWidth="1" min="1" max="1" width="31.38"/>
+    <col customWidth="1" min="2" max="2" width="30.38"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -483,7 +441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -491,7 +449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -499,7 +457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -507,15 +465,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>1912</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3">
+        <v>1912.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -523,7 +481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -531,7 +489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -539,7 +497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -547,7 +505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -555,7 +513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
@@ -563,13 +521,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -577,43 +537,55 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="3" t="s">
         <v>32</v>
       </c>
@@ -621,7 +593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22">
       <c r="A22" s="3" t="s">
         <v>34</v>
       </c>
@@ -629,7 +601,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23">
       <c r="A23" s="3" t="s">
         <v>36</v>
       </c>
@@ -637,79 +609,87 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24">
       <c r="A24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="3"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="3" t="s">
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>47</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B8" type="list">
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B8">
       <formula1>"Bildende Kunst,FIlm/Fernsehen,Litertur/Belletristik,Theater/Performance,Journalismus,Fotografie,Musik,Radio"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9" type="list">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B9">
       <formula1>"Öl Gemälde,Aquarell,Analogfotografie,Lithografie,Bronz Skulptur,Postkarte,Druck,35 mm,Animation,Studioaufname,Live,Bühnenbild,Lichttechnik,Bildende Kunst: 50x70 cm (Malerei),200x100x50 cm (Skulptur)Literatur: 200 Seiten (Buch),A4 (E-Book)Film: Laufzeit 90"&amp;" Min,HD 1920x1080Musik &amp; Audio: 45 Min,320 kbps,StereoTheater &amp; Performance: 60 Min,Bühne 10x15 m,Bühnenstück,Tanz,Interaktive Performance,Dimensionen:,Öl,Aquarell,Fotografie,Lithografie,BronzeDruck Digital,35mm,Animation,CGIStudioaufnahme,Live,MP3,VinylB"&amp;"ühnenbild,Lichttechnik,Technik"</formula1>
-      <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>